--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value587.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value587.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.604366716746945</v>
+        <v>1.092628121376038</v>
       </c>
       <c r="B1">
-        <v>1.835227435314051</v>
+        <v>1.962450504302979</v>
       </c>
       <c r="C1">
-        <v>1.852091731903165</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.368207965477378</v>
+        <v>2.0750732421875</v>
       </c>
       <c r="E1">
-        <v>1.16045019215499</v>
+        <v>1.13274621963501</v>
       </c>
     </row>
   </sheetData>
